--- a/biology/Zoologie/Callopistria_juventina/Callopistria_juventina.xlsx
+++ b/biology/Zoologie/Callopistria_juventina/Callopistria_juventina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noctuelle de la Fougère
 Callopistria juventina, la Noctuelle de la Fougère, est une espèce de Lépidoptères de la famille des Noctuidae et du genre Callopistria, à répartition eurasiatique. La chenille consomme les feuilles de Pteridium aquilinum, la Fougère-aigle.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce eurasiatique, présente jusqu'au Japon[1]. En Europe, elle est présente de la péninsule Ibérique à la Russie, excepté dans l'extrême Nord[2]. En France, on la rencontre un peu partout[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce eurasiatique, présente jusqu'au Japon. En Europe, elle est présente de la péninsule Ibérique à la Russie, excepté dans l'extrême Nord. En France, on la rencontre un peu partout.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Noctuelle de la Fougère se rencontre dans les landes et milieux forestiers, sur sols acides, substrat des fougères, ses plantes hôtes. Elle se reproduit de la plaine à la moyenne montagne, où elle peut être localement commune, notamment sur les versants abandonnés par le pâturage et envahis par les landes à fougères. La chenille consomme Pteridium aquilinum (la Fougère-aigle), se tenant au revers des rames durant la journée[4]. C'est une espèce univoltine, l'adulte volant entre juin et août[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Noctuelle de la Fougère se rencontre dans les landes et milieux forestiers, sur sols acides, substrat des fougères, ses plantes hôtes. Elle se reproduit de la plaine à la moyenne montagne, où elle peut être localement commune, notamment sur les versants abandonnés par le pâturage et envahis par les landes à fougères. La chenille consomme Pteridium aquilinum (la Fougère-aigle), se tenant au revers des rames durant la journée. C'est une espèce univoltine, l'adulte volant entre juin et août.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Callopistria juventina (Stoll, 1782). L'espèce a été initialement classée dans le genre Phalaena sous le protonyme Phalaena juventina, par l'entomologiste néerlandais Caspar Stoll, en 1782[1].
-Ce taxon porte en français le nom normalisé « Noctuelle de la Fougère »[1],[3].
-Callopistria juventina a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Callopistria juventina (Stoll, 1782). L'espèce a été initialement classée dans le genre Phalaena sous le protonyme Phalaena juventina, par l'entomologiste néerlandais Caspar Stoll, en 1782.
+Ce taxon porte en français le nom normalisé « Noctuelle de la Fougère »,.
+Callopistria juventina a pour synonymes :
 Eriopus juventina (Stoll, 1782)
 Eriopus pteridis (Thunberg, 1788)
 Phalaena juventina Stoll, 1782</t>
